--- a/dayLog/检查清单.xlsx
+++ b/dayLog/检查清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workPlace\java20190119\dayLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F7894-9FE9-4BD6-91A0-BA64890A2C80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F67E46-B610-4B28-BF33-BD8575CE7272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,6 +805,9 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="F12" s="4">
+        <v>43518</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -813,6 +816,9 @@
       <c r="C13">
         <v>11</v>
       </c>
+      <c r="F13" s="4">
+        <v>43518</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -821,6 +827,9 @@
       <c r="C14">
         <v>12</v>
       </c>
+      <c r="F14" s="4">
+        <v>43518</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
@@ -829,6 +838,9 @@
       <c r="C15">
         <v>13</v>
       </c>
+      <c r="F15" s="4">
+        <v>43518</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
@@ -837,16 +849,22 @@
       <c r="C16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F16" s="4">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F17" s="4">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -854,7 +872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -862,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -870,7 +888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -878,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -886,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -894,7 +912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -902,12 +920,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -915,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -923,7 +941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -931,7 +949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>27</v>
       </c>
@@ -939,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>28</v>
       </c>

--- a/dayLog/检查清单.xlsx
+++ b/dayLog/检查清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workPlace\java20190119\dayLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F67E46-B610-4B28-BF33-BD8575CE7272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187E8BF-2249-458D-8821-8B6B1540674C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27405" yWindow="2655" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Java 教程</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,6 +805,12 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="4">
         <v>43518</v>
       </c>
@@ -816,6 +822,12 @@
       <c r="C13">
         <v>11</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="4">
         <v>43518</v>
       </c>
@@ -827,6 +839,12 @@
       <c r="C14">
         <v>12</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="4">
         <v>43518</v>
       </c>
@@ -838,6 +856,12 @@
       <c r="C15">
         <v>13</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="4">
         <v>43518</v>
       </c>
@@ -849,6 +873,12 @@
       <c r="C16">
         <v>14</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="4">
         <v>43518</v>
       </c>
@@ -860,6 +890,12 @@
       <c r="C17">
         <v>15</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="4">
         <v>43518</v>
       </c>
@@ -871,6 +907,15 @@
       <c r="C18">
         <v>16</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43519</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
@@ -879,6 +924,15 @@
       <c r="C19">
         <v>17</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43519</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
@@ -887,6 +941,15 @@
       <c r="C20">
         <v>18</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43521</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
@@ -895,6 +958,9 @@
       <c r="C21">
         <v>19</v>
       </c>
+      <c r="F21" s="4">
+        <v>43521</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
@@ -903,6 +969,9 @@
       <c r="C22">
         <v>20</v>
       </c>
+      <c r="F22" s="4">
+        <v>43521</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -911,6 +980,9 @@
       <c r="C23">
         <v>21</v>
       </c>
+      <c r="F23" s="4">
+        <v>43521</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -919,6 +991,9 @@
       <c r="C24">
         <v>22</v>
       </c>
+      <c r="F24" s="4">
+        <v>43521</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
@@ -931,6 +1006,9 @@
       </c>
       <c r="C28">
         <v>23</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43522</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">

--- a/dayLog/检查清单.xlsx
+++ b/dayLog/检查清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workPlace\java20190119\dayLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187E8BF-2249-458D-8821-8B6B1540674C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4EEDA8-B3E6-495F-9911-A24C5709065C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27405" yWindow="2655" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Java 教程</t>
   </si>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,6 +1022,9 @@
       <c r="C29">
         <v>24</v>
       </c>
+      <c r="F29" s="4">
+        <v>43523</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
@@ -1026,6 +1033,9 @@
       <c r="C30">
         <v>25</v>
       </c>
+      <c r="F30" s="4">
+        <v>43523</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
@@ -1034,6 +1044,9 @@
       <c r="C31">
         <v>26</v>
       </c>
+      <c r="F31" s="4">
+        <v>43524</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
@@ -1042,16 +1055,22 @@
       <c r="C32">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F32" s="4">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F33" s="4">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1059,44 +1078,77 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>33</v>
       </c>
       <c r="C38">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>36</v>
       </c>
@@ -1104,7 +1156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>37</v>
       </c>
@@ -1112,7 +1164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -1120,7 +1172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>39</v>
       </c>
@@ -1128,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>40</v>
       </c>
@@ -1136,7 +1188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>41</v>
       </c>
@@ -1144,7 +1196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>42</v>
       </c>
@@ -1152,12 +1204,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>43</v>
       </c>
       <c r="C48">
         <v>41</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43530</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
